--- a/ConsumableLogs.xlsx
+++ b/ConsumableLogs.xlsx
@@ -125,9 +125,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ExportTable" displayName="ExportTable" ref="A8:V15" headerRowCount="1">
-  <autoFilter ref="A8:V15"/>
-  <tableColumns count="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ExportTable" displayName="ExportTable" ref="A8:L11" headerRowCount="1">
+  <autoFilter ref="A8:L11"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="ProductName"/>
     <tableColumn id="3" name="LOT"/>
@@ -140,16 +140,6 @@
     <tableColumn id="10" name="DateFinished"/>
     <tableColumn id="11" name="FinishedInitials"/>
     <tableColumn id="12" name="CreatedDateTime"/>
-    <tableColumn id="13" name="AlsItemNumber"/>
-    <tableColumn id="14" name="UnitPrice"/>
-    <tableColumn id="15" name="UnitOfMeasure"/>
-    <tableColumn id="16" name="ItemDescription"/>
-    <tableColumn id="17" name="Station"/>
-    <tableColumn id="18" name="IsConsumable"/>
-    <tableColumn id="19" name="Alert"/>
-    <tableColumn id="20" name="VendorItemNumber"/>
-    <tableColumn id="21" name="Vendor"/>
-    <tableColumn id="22" name="PO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -444,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +444,7 @@
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
@@ -464,16 +454,6 @@
     <col width="18" customWidth="1" min="10" max="10"/>
     <col width="22" customWidth="1" min="11" max="11"/>
     <col width="25" customWidth="1" min="12" max="12"/>
-    <col width="19" customWidth="1" min="13" max="13"/>
-    <col width="15" customWidth="1" min="14" max="14"/>
-    <col width="19" customWidth="1" min="15" max="15"/>
-    <col width="21" customWidth="1" min="16" max="16"/>
-    <col width="13" customWidth="1" min="17" max="17"/>
-    <col width="18" customWidth="1" min="18" max="18"/>
-    <col width="11" customWidth="1" min="19" max="19"/>
-    <col width="22" customWidth="1" min="20" max="20"/>
-    <col width="12" customWidth="1" min="21" max="21"/>
-    <col width="9" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -544,60 +524,10 @@
           <t>CreatedDateTime</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>AlsItemNumber</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>UnitPrice</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>UnitOfMeasure</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>ItemDescription</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Station</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>IsConsumable</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Alert</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>VendorItemNumber</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Vendor</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>PO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -627,61 +557,35 @@
           <t>2026-01-01</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>2026-02-16 09:58:17</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>2</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>2</v>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -690,7 +594,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Adadwa</t>
+          <t>ADDWDA</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -698,7 +602,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -708,73 +612,27 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-02-16 09:58:17</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>2</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>2</v>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>2026-02-18 11:36:01</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Galic Gun</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Adadwdad</t>
+          <t>ADDWDA</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -782,7 +640,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -792,414 +650,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-02-16 14:12:33</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>4</v>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Galic Gun</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Adadwdad</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>RR</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>2026-02-16 14:12:33</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>2</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Galic Gun</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Adadwdad</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>RR</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>2026-02-16 14:12:33</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>2</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>6</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Galic Gun</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Adadwdad</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>RR</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>2026-02-16 14:12:33</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
-        <v>2</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Galic Gun</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>RR</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>RR</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>RR</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>2026-02-16 14:14:35</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>2</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>234</t>
+          <t>2026-02-18 11:36:01</t>
         </is>
       </c>
     </row>
